--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,10 +546,10 @@
         <v>9.127718</v>
       </c>
       <c r="I2">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="J2">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.509196</v>
+        <v>0.5471986666666667</v>
       </c>
       <c r="N2">
-        <v>1.527588</v>
+        <v>1.641596</v>
       </c>
       <c r="O2">
-        <v>0.02558190413389134</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="P2">
-        <v>0.02558190413389134</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="Q2">
-        <v>1.549265831576</v>
+        <v>1.664891706436445</v>
       </c>
       <c r="R2">
-        <v>13.943392484184</v>
+        <v>14.984025357928</v>
       </c>
       <c r="S2">
-        <v>0.02514029655485325</v>
+        <v>0.01851961950647383</v>
       </c>
       <c r="T2">
-        <v>0.02514029655485325</v>
+        <v>0.01851961950647383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +608,10 @@
         <v>9.127718</v>
       </c>
       <c r="I3">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="J3">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +626,10 @@
         <v>53.028774</v>
       </c>
       <c r="O3">
-        <v>0.8880516296316739</v>
+        <v>0.8479060840514853</v>
       </c>
       <c r="P3">
-        <v>0.8880516296316739</v>
+        <v>0.8479060840514852</v>
       </c>
       <c r="Q3">
         <v>53.781299439748</v>
@@ -635,10 +638,10 @@
         <v>484.031694957732</v>
       </c>
       <c r="S3">
-        <v>0.8727216398009748</v>
+        <v>0.5982426354442825</v>
       </c>
       <c r="T3">
-        <v>0.8727216398009748</v>
+        <v>0.5982426354442824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,10 +670,10 @@
         <v>9.127718</v>
       </c>
       <c r="I4">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="J4">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.719084666666667</v>
+        <v>2.604410666666667</v>
       </c>
       <c r="N4">
-        <v>5.157254</v>
+        <v>7.813232000000001</v>
       </c>
       <c r="O4">
-        <v>0.0863664662344347</v>
+        <v>0.1249300417336775</v>
       </c>
       <c r="P4">
-        <v>0.0863664662344347</v>
+        <v>0.1249300417336775</v>
       </c>
       <c r="Q4">
-        <v>5.230440018485777</v>
+        <v>7.924108707175112</v>
       </c>
       <c r="R4">
-        <v>47.073960166372</v>
+        <v>71.316978364576</v>
       </c>
       <c r="S4">
-        <v>0.08487556524972907</v>
+        <v>0.08814475897590245</v>
       </c>
       <c r="T4">
-        <v>0.08487556524972907</v>
+        <v>0.08814475897590245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.042572666666667</v>
+      </c>
+      <c r="H5">
+        <v>9.127718</v>
+      </c>
+      <c r="I5">
+        <v>0.7055529458943673</v>
+      </c>
+      <c r="J5">
+        <v>0.7055529458943673</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.05344499999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.160335</v>
-      </c>
-      <c r="I5">
-        <v>0.01726249839444284</v>
-      </c>
-      <c r="J5">
-        <v>0.01726249839444284</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.509196</v>
+        <v>0.01908533333333333</v>
       </c>
       <c r="N5">
-        <v>1.527588</v>
+        <v>0.057256</v>
       </c>
       <c r="O5">
-        <v>0.02558190413389134</v>
+        <v>0.0009154975136414022</v>
       </c>
       <c r="P5">
-        <v>0.02558190413389134</v>
+        <v>0.0009154975136414022</v>
       </c>
       <c r="Q5">
-        <v>0.02721398022</v>
+        <v>0.05806851353422222</v>
       </c>
       <c r="R5">
-        <v>0.24492582198</v>
+        <v>0.5226166218079999</v>
       </c>
       <c r="S5">
-        <v>0.0004416075790380898</v>
+        <v>0.0006459319677086601</v>
       </c>
       <c r="T5">
-        <v>0.0004416075790380898</v>
+        <v>0.0006459319677086601</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05344499999999999</v>
+        <v>0.271593</v>
       </c>
       <c r="H6">
-        <v>0.160335</v>
+        <v>0.814779</v>
       </c>
       <c r="I6">
-        <v>0.01726249839444284</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="J6">
-        <v>0.01726249839444284</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>17.676258</v>
+        <v>0.5471986666666667</v>
       </c>
       <c r="N6">
-        <v>53.028774</v>
+        <v>1.641596</v>
       </c>
       <c r="O6">
-        <v>0.8880516296316739</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="P6">
-        <v>0.8880516296316739</v>
+        <v>0.02624837670119588</v>
       </c>
       <c r="Q6">
-        <v>0.9447076088099999</v>
+        <v>0.148615327476</v>
       </c>
       <c r="R6">
-        <v>8.502368479289999</v>
+        <v>1.337537947284</v>
       </c>
       <c r="S6">
-        <v>0.01532998983069912</v>
+        <v>0.001653140145419177</v>
       </c>
       <c r="T6">
-        <v>0.01532998983069912</v>
+        <v>0.001653140145419177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05344499999999999</v>
+        <v>0.271593</v>
       </c>
       <c r="H7">
-        <v>0.160335</v>
+        <v>0.814779</v>
       </c>
       <c r="I7">
-        <v>0.01726249839444284</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="J7">
-        <v>0.01726249839444284</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +868,648 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.719084666666667</v>
+        <v>17.676258</v>
       </c>
       <c r="N7">
-        <v>5.157254</v>
+        <v>53.028774</v>
       </c>
       <c r="O7">
-        <v>0.0863664662344347</v>
+        <v>0.8479060840514853</v>
       </c>
       <c r="P7">
-        <v>0.0863664662344347</v>
+        <v>0.8479060840514852</v>
       </c>
       <c r="Q7">
-        <v>0.09187648000999998</v>
+        <v>4.800747938994001</v>
       </c>
       <c r="R7">
-        <v>0.8268883200899999</v>
+        <v>43.206731450946</v>
       </c>
       <c r="S7">
-        <v>0.00149090098470563</v>
+        <v>0.05340168662798928</v>
       </c>
       <c r="T7">
-        <v>0.00149090098470563</v>
+        <v>0.05340168662798928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.271593</v>
+      </c>
+      <c r="H8">
+        <v>0.814779</v>
+      </c>
+      <c r="I8">
+        <v>0.06298066216581918</v>
+      </c>
+      <c r="J8">
+        <v>0.06298066216581918</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.604410666666667</v>
+      </c>
+      <c r="N8">
+        <v>7.813232000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="P8">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="Q8">
+        <v>0.7073397061920002</v>
+      </c>
+      <c r="R8">
+        <v>6.366057355728001</v>
+      </c>
+      <c r="S8">
+        <v>0.007868176752790437</v>
+      </c>
+      <c r="T8">
+        <v>0.007868176752790437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.271593</v>
+      </c>
+      <c r="H9">
+        <v>0.814779</v>
+      </c>
+      <c r="I9">
+        <v>0.06298066216581918</v>
+      </c>
+      <c r="J9">
+        <v>0.06298066216581918</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01908533333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.057256</v>
+      </c>
+      <c r="O9">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="P9">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="Q9">
+        <v>0.005183442936000001</v>
+      </c>
+      <c r="R9">
+        <v>0.046650986424</v>
+      </c>
+      <c r="S9">
+        <v>5.76586396202966E-05</v>
+      </c>
+      <c r="T9">
+        <v>5.76586396202966E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.3383276666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.014983</v>
+      </c>
+      <c r="I10">
+        <v>0.07845600024920825</v>
+      </c>
+      <c r="J10">
+        <v>0.07845600024920826</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.5471986666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.641596</v>
+      </c>
+      <c r="O10">
+        <v>0.02624837670119588</v>
+      </c>
+      <c r="P10">
+        <v>0.02624837670119588</v>
+      </c>
+      <c r="Q10">
+        <v>0.1851324480964444</v>
+      </c>
+      <c r="R10">
+        <v>1.666192032868</v>
+      </c>
+      <c r="S10">
+        <v>0.002059342649010336</v>
+      </c>
+      <c r="T10">
+        <v>0.002059342649010336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.3383276666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.014983</v>
+      </c>
+      <c r="I11">
+        <v>0.07845600024920825</v>
+      </c>
+      <c r="J11">
+        <v>0.07845600024920826</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.676258</v>
+      </c>
+      <c r="N11">
+        <v>53.028774</v>
+      </c>
+      <c r="O11">
+        <v>0.8479060840514853</v>
+      </c>
+      <c r="P11">
+        <v>0.8479060840514852</v>
+      </c>
+      <c r="Q11">
+        <v>5.980367124538</v>
+      </c>
+      <c r="R11">
+        <v>53.823304120842</v>
+      </c>
+      <c r="S11">
+        <v>0.06652331994164852</v>
+      </c>
+      <c r="T11">
+        <v>0.06652331994164852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.3383276666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.014983</v>
+      </c>
+      <c r="I12">
+        <v>0.07845600024920825</v>
+      </c>
+      <c r="J12">
+        <v>0.07845600024920826</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.604410666666667</v>
+      </c>
+      <c r="N12">
+        <v>7.813232000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="P12">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="Q12">
+        <v>0.8811441838951111</v>
+      </c>
+      <c r="R12">
+        <v>7.930297655056001</v>
+      </c>
+      <c r="S12">
+        <v>0.009801511385391003</v>
+      </c>
+      <c r="T12">
+        <v>0.009801511385391004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.3383276666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.014983</v>
+      </c>
+      <c r="I13">
+        <v>0.07845600024920825</v>
+      </c>
+      <c r="J13">
+        <v>0.07845600024920826</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01908533333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.057256</v>
+      </c>
+      <c r="O13">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="P13">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="Q13">
+        <v>0.006457096294222221</v>
+      </c>
+      <c r="R13">
+        <v>0.058113866648</v>
+      </c>
+      <c r="S13">
+        <v>7.182627315839938E-05</v>
+      </c>
+      <c r="T13">
+        <v>7.18262731583994E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.6598303333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.979491</v>
+      </c>
+      <c r="I14">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="J14">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.5471986666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.641596</v>
+      </c>
+      <c r="O14">
+        <v>0.02624837670119588</v>
+      </c>
+      <c r="P14">
+        <v>0.02624837670119588</v>
+      </c>
+      <c r="Q14">
+        <v>0.3610582786262223</v>
+      </c>
+      <c r="R14">
+        <v>3.249524507636</v>
+      </c>
+      <c r="S14">
+        <v>0.004016274400292536</v>
+      </c>
+      <c r="T14">
+        <v>0.004016274400292536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.6598303333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.979491</v>
+      </c>
+      <c r="I15">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="J15">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>17.676258</v>
+      </c>
+      <c r="N15">
+        <v>53.028774</v>
+      </c>
+      <c r="O15">
+        <v>0.8479060840514853</v>
+      </c>
+      <c r="P15">
+        <v>0.8479060840514852</v>
+      </c>
+      <c r="Q15">
+        <v>11.663331208226</v>
+      </c>
+      <c r="R15">
+        <v>104.969980874034</v>
+      </c>
+      <c r="S15">
+        <v>0.1297384420375649</v>
+      </c>
+      <c r="T15">
+        <v>0.1297384420375649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.6598303333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.979491</v>
+      </c>
+      <c r="I16">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="J16">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.604410666666667</v>
+      </c>
+      <c r="N16">
+        <v>7.813232000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="P16">
+        <v>0.1249300417336775</v>
+      </c>
+      <c r="Q16">
+        <v>1.718469158323556</v>
+      </c>
+      <c r="R16">
+        <v>15.466222424912</v>
+      </c>
+      <c r="S16">
+        <v>0.01911559461959365</v>
+      </c>
+      <c r="T16">
+        <v>0.01911559461959365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.6598303333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.979491</v>
+      </c>
+      <c r="I17">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="J17">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01908533333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.057256</v>
+      </c>
+      <c r="O17">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="P17">
+        <v>0.0009154975136414022</v>
+      </c>
+      <c r="Q17">
+        <v>0.01259308185511111</v>
+      </c>
+      <c r="R17">
+        <v>0.113337736696</v>
+      </c>
+      <c r="S17">
+        <v>0.0001400806331540461</v>
+      </c>
+      <c r="T17">
+        <v>0.0001400806331540461</v>
       </c>
     </row>
   </sheetData>
